--- a/case1.xlsx
+++ b/case1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JavaProjects\configuration and scheduling of MRFL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JavaProjects\scheduling_of_rfl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{513F5C69-2926-4719-83D2-F9C1BBE53C09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFF4A315-3CCD-4FC9-87E1-05719C722638}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1008" yWindow="-108" windowWidth="22140" windowHeight="13176" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1116" yWindow="0" windowWidth="10956" windowHeight="12960" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="process" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,17 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -1777,7 +1788,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1802,7 +1813,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -1813,7 +1824,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -1824,7 +1835,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -1835,7 +1846,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="C5">
         <v>2</v>
@@ -1846,7 +1857,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -1857,7 +1868,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -1868,7 +1879,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="C8">
         <v>2</v>
@@ -1879,7 +1890,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="C9">
         <v>2</v>
